--- a/策划案/数值/玩家属性.xlsx
+++ b/策划案/数值/玩家属性.xlsx
@@ -1520,8 +1520,8 @@
   <sheetPr/>
   <dimension ref="C5:AA59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
